--- a/CreditNote.Excel.AddIn/CreditNotes.xlsx
+++ b/CreditNote.Excel.AddIn/CreditNotes.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitalhealthfoods-my.sharepoint.com/personal/barry_nurturebrands_co_za/Documents/Documents/Excel Docs/Fairview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Add-Ins\Excel\CreditNote.Excel.AddIn\CreditNote.Excel.AddIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{F5104955-77B0-4AD0-905B-E482757B1490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BADE6F1-59BC-4796-8F77-8392111FFACA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE1643A-F90E-4EB5-815E-1BB568EE7D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6385A34-D8DA-43FF-B46B-4305922792E4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6385A34-D8DA-43FF-B46B-4305922792E4}"/>
   </bookViews>
   <sheets>
     <sheet name="CreditNotes" sheetId="1" r:id="rId1"/>
     <sheet name="ProductClass" sheetId="2" r:id="rId2"/>
     <sheet name="Reasons" sheetId="4" r:id="rId3"/>
+    <sheet name="TaxCode" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Query_from_Fairview" localSheetId="1" hidden="1">ProductClass!$A$1:$B$95</definedName>
     <definedName name="Query_from_Fairview" localSheetId="2" hidden="1">Reasons!$A$1:$B$29</definedName>
+    <definedName name="Query_from_Fairview" localSheetId="3" hidden="1">TaxCode!$A$1:$B$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,11 +51,14 @@
   <connection id="2" xr16:uid="{7E81C8F2-6205-417C-94F2-666DD25EC745}" name="Query from Fairview1" type="1" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="DSN=Fairview;UID=Barry;Trusted_Connection=Yes;APP=Microsoft Office;WSID=VHFLAP627;DATABASE=SysproCompanyFC" command="SELECT [Description], [ReasonCode]_x000d__x000a_  FROM [SysproCompanyFC].[dbo].[TblSoReason]_x000d__x000a_order by Description"/>
   </connection>
+  <connection id="3" xr16:uid="{251E723C-F665-4709-B06E-007BA58D087A}" name="Query from Fairview2" type="1" refreshedVersion="8" background="1" saveData="1">
+    <dbPr connection="DSN=Fairview;UID=Barry;Trusted_Connection=Yes;APP=Microsoft Office;WSID=VHFLAP627;DATABASE=SysproCompanyFC" command="SELECT [Description], [TaxCode]_x000d__x000a_  FROM [SysproCompanyFC].[dbo].[AdmTax]_x000d__x000a_order by Description"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="284">
   <si>
     <t>ProductClass</t>
   </si>
@@ -806,13 +811,112 @@
   </si>
   <si>
     <t>Reason Description</t>
+  </si>
+  <si>
+    <t>Tax Code</t>
+  </si>
+  <si>
+    <t>TaxCode</t>
+  </si>
+  <si>
+    <t>Capital Input - 15%</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Cashbook Input - 15%</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Creditor Input - Exempt</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Creditor Input - Zero Rated</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Creditors Input 15%</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Customs Vat Capital Import 100%</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Customs Vat Import 100%</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Input Adjustments - 15%</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Non-taxable exempt amount</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Output Adjustments - 15%</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Sales Output - 15%</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Sales Output - Exempt Export</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Sales Output - Zero Rated</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Sales Output Exempt Export</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Sales Output Intercompany - 15%</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Tax Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +932,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -837,7 +949,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -854,26 +966,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -908,7 +1308,43 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Query from Fairview" connectionId="3" xr16:uid="{8EEE4E6C-3101-43C5-9F92-4F5EFC295D03}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="3">
+    <queryTableFields count="2">
+      <queryTableField id="1" name="Description" tableColumnId="1"/>
+      <queryTableField id="2" name="TaxCode" tableColumnId="2"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0BB32F00-5052-4BDA-B367-E9C1A918C983}" name="Table3" displayName="Table3" ref="A1:J39" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:J39" xr:uid="{0BB32F00-5052-4BDA-B367-E9C1A918C983}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C66BB324-1962-4DF3-955F-0B24E563F63E}" name="Non-Stocked Code" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6CA21BB9-4D70-49C6-A81A-6D2FFED774F4}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{48280BDA-E469-438B-A057-9809CFD9152E}" name="Reason Description" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{47083CC3-3979-4CC9-856B-2D1B9D83CF81}" name="Product Class Description" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{B899CCD3-201B-4D3D-8F6C-078D971553E2}" name="Tax Description" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{31D63FC3-0C10-41E1-81F9-0701F68EB384}" name="Quantity" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{CC38C1BA-2744-4EA4-A91D-4A209D49063B}" name="Price" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C3317681-8D77-4C0A-8F70-597D8283535E}" name="Reason Code" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(C2,Reasons!A:B,2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{541DE8D6-392A-42BE-B372-840401F6D49D}" name="Product Class" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(D2,ProductClass!A:B,2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{B2C45CF0-D98F-46B7-B1D5-3EEF5AA04F11}" name="Tax Code" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(E2,TaxCode!A:B,2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC3D77F4-17CC-45E6-94D3-07A1EDAB5045}" name="Table_Query_from_Fairview" displayName="Table_Query_from_Fairview" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B95" xr:uid="{EC3D77F4-17CC-45E6-94D3-07A1EDAB5045}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">
@@ -922,12 +1358,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D015C6E-02B5-4CAD-970A-6140CCF1740A}" name="Table_Query_from_Fairview3" displayName="Table_Query_from_Fairview3" ref="A1:B29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B29" xr:uid="{5D015C6E-02B5-4CAD-970A-6140CCF1740A}"/>
   <tableColumns count="2">
     <tableColumn id="7" xr3:uid="{17DC5C43-463D-40EB-9B6F-7021CD511F3B}" uniqueName="7" name="Description" queryTableFieldId="1"/>
     <tableColumn id="8" xr3:uid="{7FA373A4-C654-472A-A186-9AD924DABE2A}" uniqueName="8" name="ReasonCode" queryTableFieldId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{54DFADDD-0852-4706-AEE9-602C9BC53C94}" name="Table_Query_from_Fairview5" displayName="Table_Query_from_Fairview5" ref="A1:B16" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B16" xr:uid="{54DFADDD-0852-4706-AEE9-602C9BC53C94}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{423FC873-624F-4B20-9434-E0AF5DEC266E}" uniqueName="1" name="Description" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{8A62C30B-0989-48E7-B645-E7851F469190}" uniqueName="2" name="TaxCode" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1250,2053 +1697,2904 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C546E2F7-20BF-444F-8F02-4AA3B2454196}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B2,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E2" t="str">
+      <c r="J1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C2,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I2" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D2,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B3,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E3" t="str">
+      <c r="J2" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E2,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C3,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I3" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D3,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B4,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E4" t="str">
+      <c r="J3" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E3,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C4,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I4" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D4,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B5,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E5" t="str">
+      <c r="J4" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E4,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C5,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D5,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B6,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E6" t="str">
+      <c r="J5" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E5,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C6,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D6,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B7,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E7" t="str">
+      <c r="J6" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E6,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C7,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D7,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B8,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
+      <c r="J7" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E7,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C8,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D8,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B9,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E9" t="str">
+      <c r="J8" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E8,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C9,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D9,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B10,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E10" t="str">
+      <c r="J9" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E9,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C10,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D10,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B11,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E11" t="str">
+      <c r="J10" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E10,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C11,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D11,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B12,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E12" t="str">
+      <c r="J11" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E11,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C12,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D12,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B13,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E13" t="str">
+      <c r="J12" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E12,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C13,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D13,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B14,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E14" t="str">
+      <c r="J13" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E13,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C14,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D14,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B15,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E15" t="str">
+      <c r="J14" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E14,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C15,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D15,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B16,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E16" t="str">
+      <c r="J15" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E15,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C16,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D16,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B17,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E17" t="str">
+      <c r="J16" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E16,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C17,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D17,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B18,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E18" t="str">
+      <c r="J17" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E17,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C18,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D18,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B19,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E19" t="str">
+      <c r="J18" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E18,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C19,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D19,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B20,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E20" t="str">
+      <c r="J19" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E19,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C20,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D20,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B21,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E21" t="str">
+      <c r="J20" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E20,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C21,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D21,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B22,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E22" t="str">
+      <c r="J21" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E21,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C22,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D22,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B23,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E23" t="str">
+      <c r="J22" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E22,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C23,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D23,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B24,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E24" t="str">
+      <c r="J23" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E23,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C24,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D24,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B25,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E25" t="str">
+      <c r="J24" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E24,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C25,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D25,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B26,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E26" t="str">
+      <c r="J25" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E25,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C26,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I26" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D26,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B27,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E27" t="str">
+      <c r="J26" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E26,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C27,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I27" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D27,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B28,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E28" t="str">
+      <c r="J27" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E27,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C28,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I28" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D28,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B29,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E29" t="str">
+      <c r="J28" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E28,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C29,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I29" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D29,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B30,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E30" t="str">
+      <c r="J29" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E29,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C30,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D30,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B31,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E31" t="str">
+      <c r="J30" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E30,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C31,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I31" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D31,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B32,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E32" t="str">
+      <c r="J31" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E31,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C32,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I32" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D32,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B33,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E33" t="str">
+      <c r="J32" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E32,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C33,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D33,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B34,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E34" t="str">
+      <c r="J33" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E33,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C34,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D34,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B35,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E35" t="str">
+      <c r="J34" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E34,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C35,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D35,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B36,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E36" t="str">
+      <c r="J35" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E35,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C36,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D36,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B37,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E37" t="str">
+      <c r="J36" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E36,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C37,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D37,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B38,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E38" t="str">
+      <c r="J37" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E37,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C38,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I38" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D38,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B39,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E39" t="str">
+      <c r="J38" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E38,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C39,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D39,ProductClass!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B40,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D40,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B41,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E41" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D41,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B42,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E42" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D42,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C43" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B43,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E43" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D43,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C44" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B44,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E44" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D44,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C45" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B45,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E45" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D45,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C46" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B46,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E46" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D46,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C47" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B47,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E47" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D47,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C48" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B48,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E48" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D48,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C49" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B49,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E49" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D49,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C50" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B50,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E50" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D50,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C51" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B51,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E51" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D51,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C52" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B52,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E52" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D52,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C53" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B53,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E53" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D53,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C54" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B54,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E54" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D54,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C55" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B55,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E55" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D55,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C56" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B56,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E56" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D56,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C57" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B57,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E57" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D57,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C58" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B58,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E58" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D58,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C59" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B59,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E59" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D59,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C60" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B60,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E60" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D60,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C61" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B61,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E61" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D61,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C62" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B62,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E62" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D62,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C63" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B63,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E63" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D63,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C64" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B64,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E64" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D64,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C65" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B65,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E65" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D65,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C66" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B66,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E66" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D66,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C67" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B67,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E67" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D67,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C68" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B68,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E68" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D68,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C69" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B69,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E69" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D69,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C70" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B70,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E70" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D70,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C71" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B71,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E71" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D71,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C72" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B72,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E72" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D72,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C73" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B73,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E73" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D73,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C74" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B74,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E74" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D74,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C75" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B75,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E75" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D75,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C76" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B76,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E76" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D76,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C77" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B77,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E77" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D77,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C78" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B78,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E78" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D78,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C79" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B79,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E79" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D79,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C80" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B80,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E80" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D80,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C81" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B81,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E81" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D81,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C82" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B82,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E82" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D82,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C83" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B83,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E83" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D83,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C84" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B84,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E84" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D84,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C85" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B85,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E85" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D85,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C86" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B86,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E86" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D86,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C87" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B87,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E87" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D87,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C88" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B88,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E88" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D88,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C89" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B89,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E89" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D89,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C90" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B90,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E90" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D90,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C91" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B91,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E91" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D91,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C92" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B92,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E92" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D92,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C93" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B93,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E93" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D93,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C94" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B94,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E94" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D94,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C95" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B95,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E95" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D95,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C96" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B96,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E96" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D96,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C97" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B97,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E97" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D97,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C98" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B98,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E98" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D98,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C99" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B99,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E99" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D99,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C100" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B100,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E100" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D100,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C101" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B101,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E101" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D101,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C102" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B102,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E102" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D102,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C103" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B103,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E103" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D103,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C104" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B104,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E104" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D104,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C105" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B105,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E105" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D105,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C106" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B106,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E106" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D106,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C107" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B107,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E107" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D107,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C108" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B108,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E108" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D108,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C109" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B109,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E109" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D109,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C110" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B110,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E110" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D110,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C111" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B111,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E111" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D111,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C112" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B112,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E112" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D112,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C113" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B113,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E113" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D113,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C114" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B114,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E114" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D114,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C115" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B115,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E115" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D115,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C116" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B116,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E116" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D116,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C117" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B117,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E117" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D117,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C118" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B118,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E118" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D118,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C119" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B119,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E119" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D119,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C120" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B120,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E120" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D120,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C121" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B121,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E121" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D121,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C122" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B122,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E122" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D122,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C123" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B123,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E123" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D123,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C124" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B124,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E124" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D124,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C125" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B125,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E125" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D125,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C126" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B126,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E126" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D126,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C127" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B127,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E127" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D127,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C128" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B128,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E128" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D128,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C129" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B129,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E129" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D129,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C130" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B130,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E130" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D130,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C131" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B131,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E131" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D131,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C132" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B132,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E132" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D132,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C133" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B133,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E133" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D133,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C134" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B134,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E134" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D134,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C135" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B135,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E135" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D135,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C136" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B136,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E136" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D136,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C137" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B137,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E137" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D137,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C138" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B138,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E138" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D138,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C139" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B139,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E139" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D139,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C140" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B140,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E140" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D140,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C141" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B141,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E141" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D141,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C142" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B142,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E142" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D142,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C143" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B143,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E143" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D143,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C144" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B144,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E144" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D144,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C145" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B145,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E145" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D145,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C146" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B146,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E146" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D146,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C147" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B147,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E147" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D147,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C148" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B148,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E148" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D148,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C149" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B149,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E149" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D149,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C150" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B150,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E150" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D150,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C151" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B151,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E151" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D151,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C152" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B152,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E152" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D152,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C153" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B153,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E153" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D153,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C154" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B154,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E154" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D154,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C155" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B155,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E155" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D155,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C156" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B156,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E156" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D156,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C157" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B157,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E157" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D157,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C158" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B158,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E158" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D158,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C159" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B159,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E159" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D159,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C160" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B160,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E160" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D160,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C161" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B161,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E161" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D161,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C162" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B162,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E162" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D162,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C163" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B163,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E163" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D163,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C164" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B164,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E164" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D164,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C165" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B165,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E165" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D165,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C166" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B166,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E166" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D166,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C167" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B167,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E167" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D167,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C168" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B168,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E168" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D168,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C169" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B169,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E169" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D169,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C170" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B170,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E170" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D170,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C171" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B171,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E171" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D171,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C172" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B172,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E172" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D172,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C173" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B173,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E173" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D173,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C174" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B174,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E174" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D174,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C175" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B175,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E175" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D175,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C176" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B176,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E176" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D176,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C177" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B177,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E177" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D177,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C178" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B178,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E178" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D178,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C179" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B179,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E179" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D179,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C180" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B180,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E180" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D180,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C181" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B181,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E181" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D181,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C182" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B182,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E182" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D182,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C183" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B183,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E183" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D183,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C184" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B184,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E184" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D184,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C185" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B185,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E185" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D185,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C186" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B186,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E186" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D186,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C187" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B187,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E187" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D187,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C188" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B188,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E188" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D188,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C189" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B189,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E189" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D189,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C190" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B190,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E190" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D190,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C191" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B191,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E191" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D191,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C192" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B192,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E192" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D192,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C193" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B193,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E193" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D193,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C194" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B194,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E194" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D194,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C195" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B195,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E195" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D195,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C196" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B196,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E196" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D196,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C197" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B197,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E197" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D197,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C198" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B198,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E198" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D198,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C199" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B199,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E199" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D199,ProductClass!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C200" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B200,Reasons!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E200" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(D200,ProductClass!A:B,2,FALSE),"")</f>
+      <c r="J39" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E39,TaxCode!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L40,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C40,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K41" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L41,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C41,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K42" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L42,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C42,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K43" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L43,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C43,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K44" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L44,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C44,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K45" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L45,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C45,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K46" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L46,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C46,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K47" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L47,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C47,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K48" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L48,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C48,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K49" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L49,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C49,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K50" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L50,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C50,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K51" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L51,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C51,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K52" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L52,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C52,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K53" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L53,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M53" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C53,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K54" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L54,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M54" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C54,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K55" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L55,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M55" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C55,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K56" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L56,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M56" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C56,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L57,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C57,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K58" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L58,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M58" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C58,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K59" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L59,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M59" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C59,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K60" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L60,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M60" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C60,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K61" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L61,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M61" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C61,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K62" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L62,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M62" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C62,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K63" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L63,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M63" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C63,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K64" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L64,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M64" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C64,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K65" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L65,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M65" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C65,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K66" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L66,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M66" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C66,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K67" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L67,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M67" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C67,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K68" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L68,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M68" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C68,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K69" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L69,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M69" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C69,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K70" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L70,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M70" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C70,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K71" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L71,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M71" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C71,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K72" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L72,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M72" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C72,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K73" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L73,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M73" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C73,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K74" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L74,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M74" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C74,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K75" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L75,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M75" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C75,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K76" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L76,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M76" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C76,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K77" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L77,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M77" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C77,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K78" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L78,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M78" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C78,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K79" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L79,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M79" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C79,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K80" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L80,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M80" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C80,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K81" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L81,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M81" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C81,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K82" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L82,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M82" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C82,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K83" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L83,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M83" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C83,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K84" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L84,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M84" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C84,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K85" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L85,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M85" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C85,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K86" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L86,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M86" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C86,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K87" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L87,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M87" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C87,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K88" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L88,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M88" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C88,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K89" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L89,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M89" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C89,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K90" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L90,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M90" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C90,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K91" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L91,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M91" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C91,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K92" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L92,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M92" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C92,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K93" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L93,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M93" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C93,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K94" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L94,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M94" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C94,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K95" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L95,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M95" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C95,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K96" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L96,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M96" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C96,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K97" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L97,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M97" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C97,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K98" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L98,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M98" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C98,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K99" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L99,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M99" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C99,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K100" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L100,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M100" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C100,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K101" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L101,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M101" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C101,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K102" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L102,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M102" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C102,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K103" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L103,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M103" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C103,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K104" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L104,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M104" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C104,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K105" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L105,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M105" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C105,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K106" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L106,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M106" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C106,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K107" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L107,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M107" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C107,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K108" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L108,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M108" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C108,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K109" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L109,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M109" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C109,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K110" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L110,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M110" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C110,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K111" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L111,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M111" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C111,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K112" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L112,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M112" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C112,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K113" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L113,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M113" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C113,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K114" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L114,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M114" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C114,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K115" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L115,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M115" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C115,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K116" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L116,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M116" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C116,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K117" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L117,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M117" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C117,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K118" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L118,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M118" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C118,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K119" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L119,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M119" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C119,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K120" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L120,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M120" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C120,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K121" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L121,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M121" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C121,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K122" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L122,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M122" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C122,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K123" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L123,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M123" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C123,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K124" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L124,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M124" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C124,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K125" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L125,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M125" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C125,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K126" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L126,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M126" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C126,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K127" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L127,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M127" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C127,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K128" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L128,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M128" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C128,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K129" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L129,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M129" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C129,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K130" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L130,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M130" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C130,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K131" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L131,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M131" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C131,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K132" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L132,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M132" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C132,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K133" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L133,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M133" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C133,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K134" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L134,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M134" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C134,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K135" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L135,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M135" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C135,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K136" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L136,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M136" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C136,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K137" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L137,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M137" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C137,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K138" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L138,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M138" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C138,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K139" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L139,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M139" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C139,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K140" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L140,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M140" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C140,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K141" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L141,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M141" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C141,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K142" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L142,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M142" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C142,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K143" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L143,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M143" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C143,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K144" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L144,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M144" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C144,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K145" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L145,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M145" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C145,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K146" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L146,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M146" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C146,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K147" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L147,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M147" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C147,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K148" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L148,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M148" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C148,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K149" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L149,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M149" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C149,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K150" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L150,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M150" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C150,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K151" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L151,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M151" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C151,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K152" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L152,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M152" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C152,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K153" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L153,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M153" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C153,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K154" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L154,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M154" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C154,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K155" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L155,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M155" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C155,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K156" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L156,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M156" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C156,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K157" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L157,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M157" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C157,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K158" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L158,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M158" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C158,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K159" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L159,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M159" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C159,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K160" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L160,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M160" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C160,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K161" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L161,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M161" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C161,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K162" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L162,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M162" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C162,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K163" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L163,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M163" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C163,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K164" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L164,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M164" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C164,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K165" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L165,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M165" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C165,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K166" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L166,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M166" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C166,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K167" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L167,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M167" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C167,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K168" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L168,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M168" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C168,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K169" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L169,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M169" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C169,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K170" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L170,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M170" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C170,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K171" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L171,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M171" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C171,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K172" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L172,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M172" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C172,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K173" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L173,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M173" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C173,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K174" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L174,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M174" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C174,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K175" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L175,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M175" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C175,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K176" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L176,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M176" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C176,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K177" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L177,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M177" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C177,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K178" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L178,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M178" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C178,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K179" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L179,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M179" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C179,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K180" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L180,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M180" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C180,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K181" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L181,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M181" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C181,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K182" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L182,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M182" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C182,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K183" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L183,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M183" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C183,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K184" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L184,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M184" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C184,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K185" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L185,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M185" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C185,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K186" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L186,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M186" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C186,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K187" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L187,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M187" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C187,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K188" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L188,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M188" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C188,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K189" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L189,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M189" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C189,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K190" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L190,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M190" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C190,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K191" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L191,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M191" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C191,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K192" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L192,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M192" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C192,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K193" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L193,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M193" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C193,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K194" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L194,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M194" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C194,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K195" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L195,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M195" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C195,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K196" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L196,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M196" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C196,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K197" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L197,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M197" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C197,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K198" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L198,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M198" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C198,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K199" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L199,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M199" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C199,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K200" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L200,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M200" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C200,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K201" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L201,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M201" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C201,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K202" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L202,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M202" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C202,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K203" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L203,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M203" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C203,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K204" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L204,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M204" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C204,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K205" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L205,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M205" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C205,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K206" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L206,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M206" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C206,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K207" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L207,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M207" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C207,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K208" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L208,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M208" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C208,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K209" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L209,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M209" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C209,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K210" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L210,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M210" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C210,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K211" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L211,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M211" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C211,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K212" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L212,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M212" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C212,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K213" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L213,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M213" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C213,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K214" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L214,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M214" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C214,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K215" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L215,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M215" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C215,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K216" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L216,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M216" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C216,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K217" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L217,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M217" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C217,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K218" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L218,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M218" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C218,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K219" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L219,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M219" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C219,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K220" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L220,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M220" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C220,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K221" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L221,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M221" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C221,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K222" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L222,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M222" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C222,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K223" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L223,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M223" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C223,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K224" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L224,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M224" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C224,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K225" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L225,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M225" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C225,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K226" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L226,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M226" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C226,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K227" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L227,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M227" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C227,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K228" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L228,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M228" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C228,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K229" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L229,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M229" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C229,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K230" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L230,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M230" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C230,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K231" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L231,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M231" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C231,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K232" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L232,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M232" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C232,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K233" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L233,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M233" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C233,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K234" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L234,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M234" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C234,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K235" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L235,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M235" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C235,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K236" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L236,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M236" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C236,Reasons!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K237" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L237,ProductClass!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M237" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C237,Reasons!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GHWGtGWv+givGLtXw+ctfYTA5OGrkNKVuvwP2CZCvel5rf2ypBJ9/ssFq3d9tAEexNc9fey4V+9armPPMxy/cA==" saltValue="rvzeOYhlLKpDbJu/GeU1JQ==" spinCount="100000" sheet="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZXQk3Mut958pUkBmF0TB/F+jEiXv7z0PvR0DqPmkREhetv62kATM2QO05eacZKAf6RdFfPAp4sGqrcWIYKzIqA==" saltValue="9zEfK76fn3uxrLV+TWW9+A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3E9548C-CC63-481D-961B-96AAF8BC3FCE}">
           <x14:formula1>
             <xm:f>Reasons!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B200</xm:sqref>
+          <xm:sqref>C2:C237</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DDAAB156-E949-471C-A251-7A484259FF34}">
+          <x14:formula1>
+            <xm:f>TaxCode!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6AF919BA-A864-454A-8A5F-2E27A9CCEFFF}">
           <x14:formula1>
             <xm:f>ProductClass!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D200</xm:sqref>
+          <xm:sqref>L40:L237 D2:D39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4091,7 +5389,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4338,4 +5636,154 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB8DE13-7A82-4628-99CD-BFB4AAB445F9}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>